--- a/project_workbook.xlsx
+++ b/project_workbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10305" yWindow="-15" windowWidth="10200" windowHeight="8310" tabRatio="826" activeTab="1"/>
+    <workbookView xWindow="10305" yWindow="-15" windowWidth="10200" windowHeight="8310" tabRatio="826" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="62" r:id="rId1"/>
@@ -7213,7 +7213,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
+      <xdr:colOff>235449</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
@@ -7231,8 +7231,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3678308" y="650991"/>
-          <a:ext cx="1745339" cy="1254009"/>
+          <a:off x="3674153" y="655397"/>
+          <a:ext cx="1751886" cy="1266852"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7244,15 +7244,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>424656</xdr:colOff>
+      <xdr:colOff>449494</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>43097</xdr:rowOff>
+      <xdr:rowOff>53511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>795617</xdr:colOff>
+      <xdr:colOff>866882</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
+      <xdr:rowOff>160533</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7263,13 +7263,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect l="8633" r="11703" b="1722"/>
+        <a:srcRect l="9704" t="1606" r="9555" b="4778"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5624185" y="659421"/>
-          <a:ext cx="1861344" cy="1279198"/>
+          <a:off x="5640084" y="674241"/>
+          <a:ext cx="1894298" cy="1262865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7287,7 +7287,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>683560</xdr:colOff>
+      <xdr:colOff>706348</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>145675</xdr:rowOff>
     </xdr:to>
@@ -7305,8 +7305,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7687236" y="694764"/>
-          <a:ext cx="1882588" cy="1210235"/>
+          <a:off x="7720854" y="699170"/>
+          <a:ext cx="1911168" cy="1223078"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10398,8 +10398,8 @@
   </sheetPr>
   <dimension ref="A3:CO16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="CF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CK15" sqref="CK15:CN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14575,8 +14575,8 @@
   </sheetPr>
   <dimension ref="B1:AR65"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
